--- a/va_facility_data_2025-02-20/Rio VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rio%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rio VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rio%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R57b54cd3fc634be6911ec585a2a7bb14"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rfb705547827b47eb9e45d0fd49f23e78"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R828af59a7e9a44c08b4066d8e3a780ab"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rf1f8241cf4d0400d88f9e1ee7638e204"/>
   </x:sheets>
 </x:workbook>
 </file>
